--- a/src/test/resources/Case1.xlsx
+++ b/src/test/resources/Case1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/workspacetest/api_auto_7_v2/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="用例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,91 +27,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>CaseId(用例编号)</t>
-    <rPh sb="7" eb="8">
-      <t>yong'li</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name(接口名)</t>
-    <rPh sb="5" eb="6">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ming</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Url(接口地址)</t>
-    <rPh sb="4" eb="5">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>di'hi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type(接口提交类型)</t>
-    <rPh sb="5" eb="6">
-      <t>jie'kou</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ti'jiao</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>lei'xing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Desc(用例描述)</t>
-    <rPh sb="5" eb="6">
-      <t>yong'li</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>miao'shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Postcode(编号)</t>
-    <rPh sb="9" eb="10">
-      <t>bian'hao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Key(秘钥)</t>
-    <rPh sb="4" eb="5">
-      <t>mi'yao</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询邮编</t>
+  </si>
+  <si>
+    <t>http://v.juhe.cn/postcode/query</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>cff415c31035d637e53dba7ecaa3ae9e</t>
+  </si>
+  <si>
+    <t>正确邮编，key为空</t>
+  </si>
+  <si>
+    <t>邮编为空，正确key</t>
+  </si>
+  <si>
+    <t>正确邮编，key长度不够</t>
+  </si>
+  <si>
+    <t>cff415c31035d</t>
+  </si>
+  <si>
+    <t>邮编不存在，正确key</t>
+  </si>
+  <si>
+    <t>正确邮编，正确key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="DengXian"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,16 +130,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -154,7 +154,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -196,12 +196,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -231,12 +231,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -406,58 +406,168 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <v>52560</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>52560</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1">
+        <v>52560</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <v>234412</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>